--- a/current-excel-manifests/IndividualAnimalMODEL-ADMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualAnimalMODEL-ADMetadataTemplate.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t>Component</t>
   </si>
@@ -480,151 +480,163 @@
     <t>B6.Clu</t>
   </si>
   <si>
-    <t>MSSM</t>
+    <t>Michigan University</t>
   </si>
   <si>
     <t>B6.Gfap-APOE4</t>
   </si>
   <si>
-    <t>NDRI</t>
+    <t>MSSM</t>
   </si>
   <si>
     <t>Bin1.B6</t>
   </si>
   <si>
-    <t>Newcastle</t>
+    <t>NDRI</t>
   </si>
   <si>
     <t>Bin1K358R_Aduci</t>
   </si>
   <si>
-    <t>NICHD</t>
+    <t>Newcastle</t>
   </si>
   <si>
     <t>BRI2-AB42</t>
   </si>
   <si>
-    <t>NIMH-HBCC</t>
+    <t>NICHD</t>
   </si>
   <si>
     <t>C57BL6J</t>
   </si>
   <si>
-    <t>Novogenix</t>
+    <t>NIMH-HBCC</t>
   </si>
   <si>
     <t>Cd2ap.B6</t>
   </si>
   <si>
-    <t>NYBB</t>
+    <t>Novogenix</t>
   </si>
   <si>
     <t>Ceacam1KO</t>
   </si>
   <si>
-    <t>Oxford</t>
+    <t>NYBB</t>
   </si>
   <si>
     <t>Clasp2L163PSNP</t>
   </si>
   <si>
-    <t>Penn</t>
+    <t>Oxford</t>
   </si>
   <si>
     <t>CRND8</t>
   </si>
   <si>
-    <t>PGP</t>
+    <t>Penn</t>
   </si>
   <si>
     <t>hAbetaKI</t>
   </si>
   <si>
+    <t>PGP</t>
+  </si>
+  <si>
     <t>hAPPAPOE4Trem2R47H</t>
+  </si>
+  <si>
+    <t>hCR1KIAPOE4Trem2</t>
   </si>
   <si>
     <t>Pritzker</t>
   </si>
   <si>
-    <t>hCR1KIAPOE4Trem2</t>
+    <t>hTau</t>
   </si>
   <si>
     <t>Rush</t>
   </si>
   <si>
-    <t>hTau</t>
+    <t>hTauTrem2</t>
   </si>
   <si>
     <t>Sestan</t>
   </si>
   <si>
-    <t>hTauTrem2</t>
+    <t>Il1rapKO</t>
   </si>
   <si>
     <t>SMRI</t>
   </si>
   <si>
-    <t>Il1rapKO</t>
+    <t>Kif21bT82TSNP</t>
   </si>
   <si>
     <t>StemExpress</t>
   </si>
   <si>
-    <t>Kif21bT82TSNP</t>
+    <t>MAPT-P301K</t>
   </si>
   <si>
     <t>TAA</t>
   </si>
   <si>
-    <t>MAPT-P301K</t>
+    <t>Meox2KOHET</t>
   </si>
   <si>
-    <t>Meox2KOHET</t>
+    <t>MthfrC677TSNP</t>
   </si>
   <si>
     <t>UCSF</t>
   </si>
   <si>
-    <t>MthfrC677TSNP</t>
+    <t>Mtmr4V297GSNP</t>
   </si>
   <si>
     <t>UM-BTB</t>
   </si>
   <si>
-    <t>Mtmr4V297GSNP</t>
+    <t>PicalmH458R</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Plcg2KO</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>Plcg2M28LSNP</t>
   </si>
   <si>
     <t>UW-CDL</t>
   </si>
   <si>
-    <t>PicalmH458R</t>
+    <t>Plexin-B1-KO</t>
   </si>
   <si>
     <t>Vaccarino</t>
   </si>
   <si>
-    <t>Plcg2KO</t>
+    <t>rTg4510</t>
+  </si>
+  <si>
+    <t>Washington University</t>
+  </si>
+  <si>
+    <t>Snx1D465NSNP</t>
   </si>
   <si>
     <t>XCell Science</t>
   </si>
   <si>
-    <t>Plcg2M28LSNP</t>
+    <t>Sorl1A528TSNP</t>
   </si>
   <si>
     <t>Yale</t>
-  </si>
-  <si>
-    <t>Plexin-B1-KO</t>
-  </si>
-  <si>
-    <t>rTg4510</t>
-  </si>
-  <si>
-    <t>Snx1D465NSNP</t>
-  </si>
-  <si>
-    <t>Sorl1A528TSNP</t>
   </si>
   <si>
     <t>Spi1rs1377416</t>
@@ -30075,14 +30087,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
+      <formula1>Sheet2!$G$2:$G$49</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
-      <formula1>Sheet2!$G$2:$G$45</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -30548,15 +30560,15 @@
     </row>
     <row r="32">
       <c r="G32" s="6" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="G33" s="6" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="Z33" s="6" t="s">
         <v>129</v>
@@ -30604,15 +30616,15 @@
     </row>
     <row r="39">
       <c r="G39" s="6" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="6" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="Z40" s="6" t="s">
         <v>142</v>
@@ -30659,83 +30671,95 @@
       </c>
     </row>
     <row r="46">
-      <c r="Z46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="Z47" s="6" t="s">
+      <c r="Z46" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48">
-      <c r="Z48" s="6" t="s">
+    <row r="47">
+      <c r="G47" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="Z49" s="6" t="s">
+      <c r="Z47" s="6" t="s">
         <v>156</v>
       </c>
     </row>
+    <row r="48">
+      <c r="G48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z48" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="50">
       <c r="Z50" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51">
       <c r="Z51" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52">
       <c r="Z52" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53">
       <c r="Z53" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54">
       <c r="Z54" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55">
       <c r="Z55" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56">
       <c r="Z56" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57">
       <c r="Z57" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58">
       <c r="Z58" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59">
       <c r="Z59" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60">
       <c r="Z60" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61">
       <c r="Z61" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualAnimalMODEL-ADMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualAnimalMODEL-ADMetadataTemplate.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
   <si>
     <t>Component</t>
   </si>
@@ -492,154 +492,157 @@
     <t>Bin1.B6</t>
   </si>
   <si>
-    <t>NDRI</t>
+    <t>NACC</t>
   </si>
   <si>
     <t>Bin1K358R_Aduci</t>
   </si>
   <si>
-    <t>Newcastle</t>
+    <t>NDRI</t>
   </si>
   <si>
     <t>BRI2-AB42</t>
   </si>
   <si>
-    <t>NICHD</t>
+    <t>Newcastle</t>
   </si>
   <si>
     <t>C57BL6J</t>
   </si>
   <si>
-    <t>NIMH-HBCC</t>
+    <t>NICHD</t>
   </si>
   <si>
     <t>Cd2ap.B6</t>
   </si>
   <si>
-    <t>Novogenix</t>
+    <t>NIMH-HBCC</t>
   </si>
   <si>
     <t>Ceacam1KO</t>
   </si>
   <si>
-    <t>NYBB</t>
+    <t>Novogenix</t>
   </si>
   <si>
     <t>Clasp2L163PSNP</t>
   </si>
   <si>
-    <t>Oxford</t>
+    <t>NYBB</t>
   </si>
   <si>
     <t>CRND8</t>
   </si>
   <si>
-    <t>Penn</t>
+    <t>Oxford</t>
   </si>
   <si>
     <t>hAbetaKI</t>
   </si>
   <si>
-    <t>PGP</t>
+    <t>Penn</t>
   </si>
   <si>
     <t>hAPPAPOE4Trem2R47H</t>
   </si>
   <si>
+    <t>PGP</t>
+  </si>
+  <si>
     <t>hCR1KIAPOE4Trem2</t>
+  </si>
+  <si>
+    <t>hTau</t>
   </si>
   <si>
     <t>Pritzker</t>
   </si>
   <si>
-    <t>hTau</t>
+    <t>hTauTrem2</t>
   </si>
   <si>
     <t>Rush</t>
   </si>
   <si>
-    <t>hTauTrem2</t>
+    <t>Il1rapKO</t>
   </si>
   <si>
     <t>Sestan</t>
   </si>
   <si>
-    <t>Il1rapKO</t>
+    <t>Kif21bT82TSNP</t>
   </si>
   <si>
     <t>SMRI</t>
   </si>
   <si>
-    <t>Kif21bT82TSNP</t>
+    <t>MAPT-P301K</t>
   </si>
   <si>
     <t>StemExpress</t>
   </si>
   <si>
-    <t>MAPT-P301K</t>
+    <t>Meox2KOHET</t>
   </si>
   <si>
     <t>TAA</t>
   </si>
   <si>
-    <t>Meox2KOHET</t>
+    <t>MthfrC677TSNP</t>
   </si>
   <si>
-    <t>MthfrC677TSNP</t>
+    <t>Mtmr4V297GSNP</t>
   </si>
   <si>
     <t>UCSF</t>
   </si>
   <si>
-    <t>Mtmr4V297GSNP</t>
+    <t>PicalmH458R</t>
   </si>
   <si>
     <t>UM-BTB</t>
   </si>
   <si>
-    <t>PicalmH458R</t>
+    <t>Plcg2KO</t>
   </si>
   <si>
     <t>University of Florida</t>
   </si>
   <si>
-    <t>Plcg2KO</t>
+    <t>Plcg2M28LSNP</t>
   </si>
   <si>
     <t>University of Miami</t>
   </si>
   <si>
-    <t>Plcg2M28LSNP</t>
+    <t>Plexin-B1-KO</t>
   </si>
   <si>
     <t>UW-CDL</t>
   </si>
   <si>
-    <t>Plexin-B1-KO</t>
+    <t>rTg4510</t>
   </si>
   <si>
     <t>Vaccarino</t>
   </si>
   <si>
-    <t>rTg4510</t>
+    <t>Snx1D465NSNP</t>
   </si>
   <si>
     <t>Washington University</t>
   </si>
   <si>
-    <t>Snx1D465NSNP</t>
+    <t>Sorl1A528TSNP</t>
   </si>
   <si>
     <t>XCell Science</t>
   </si>
   <si>
-    <t>Sorl1A528TSNP</t>
+    <t>Spi1rs1377416</t>
   </si>
   <si>
     <t>Yale</t>
-  </si>
-  <si>
-    <t>Spi1rs1377416</t>
   </si>
   <si>
     <t>TAUPS19</t>
@@ -30087,14 +30090,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
-      <formula1>Sheet2!$G$2:$G$49</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
+      <formula1>Sheet2!$G$2:$G$50</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -30568,15 +30571,15 @@
     </row>
     <row r="33">
       <c r="G33" s="6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="G34" s="6" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="Z34" s="6" t="s">
         <v>131</v>
@@ -30624,15 +30627,15 @@
     </row>
     <row r="40">
       <c r="G40" s="6" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="6" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="Z41" s="6" t="s">
         <v>144</v>
@@ -30703,63 +30706,66 @@
       </c>
     </row>
     <row r="50">
-      <c r="Z50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>161</v>
       </c>
+      <c r="Z50" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="51">
       <c r="Z51" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
       <c r="Z52" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
       <c r="Z53" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
       <c r="Z54" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
       <c r="Z55" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
       <c r="Z56" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
       <c r="Z57" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="Z58" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
       <c r="Z59" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
       <c r="Z60" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
       <c r="Z61" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualAnimalMODEL-ADMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualAnimalMODEL-ADMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -779,6 +779,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
